--- a/ejercicios/ejercicio si y nombres.xlsx
+++ b/ejercicios/ejercicio si y nombres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FP\Desktop\bigdata\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E28F6B-C8AF-4C89-9D58-83A8B0ED6989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0C017-773D-45B2-9322-D7138430CF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{5C2F63FA-E464-465D-AE3C-E7ED295B46F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5C2F63FA-E464-465D-AE3C-E7ED295B46F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ejercicio1  de SI Y O " sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>FUNCIONES CONDICIONALES</t>
   </si>
@@ -253,6 +253,9 @@
       </rPr>
       <t>Las celdas con relleno gris se tienen que calcular mediante funciones.</t>
     </r>
+  </si>
+  <si>
+    <t>Soltera</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -580,10 +583,11 @@
     <xf numFmtId="44" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{BE4FD7BF-BB3F-4F81-A9D0-D6D06612B63F}"/>
@@ -1275,8 +1279,8 @@
   </sheetPr>
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -1285,7 +1289,7 @@
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
@@ -1330,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>46</v>
@@ -1338,9 +1342,9 @@
       <c r="E3" s="19">
         <v>2100</v>
       </c>
-      <c r="F3" s="21">
-        <f>IF(C3="SOLTERO",IF(E3&lt;2000,E3*15%,E3*22%),IF(E3&lt;2000,E3*13%,E3*20%))</f>
-        <v>462</v>
+      <c r="F3" s="21" t="str">
+        <f>IF(C3="SOLTERO",IF(E3&lt;2000,E3*15%,E3*22%),IF(C3="CASADO",IF(E3&lt;2000,E3*13%,E3*20%),"no es ni soltero ni casado"))</f>
+        <v>no es ni soltero ni casado</v>
       </c>
       <c r="G3" s="21">
         <f>IF(D3="TRABAJADOR",E3*7.1%,E3*14%)</f>
@@ -1349,9 +1353,9 @@
       <c r="H3" s="19">
         <v>150</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="21" t="e">
         <f>E3-F3-G3-H3</f>
-        <v>1338.9</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -1368,7 +1372,7 @@
         <v>2000</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F10" si="0">IF(C4="SOLTERO",IF(E4&lt;2000,E4*15%,E4*22%),IF(E4&lt;2000,E4*13%,E4*20%))</f>
+        <f t="shared" ref="F4:F10" si="0">IF(C4="SOLTERO",IF(E4&lt;2000,E4*15%,E4*22%),IF(C4="CASADO",IF(E4&lt;2000,E4*13%,E4*20%),"no es ni soltero ni casado"))</f>
         <v>440</v>
       </c>
       <c r="G4" s="21">
@@ -1580,16 +1584,16 @@
         <f>C16*D16</f>
         <v>28.000000000000004</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="3:5" ht="18">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="3:6" ht="18">
       <c r="C17" s="27">
         <v>500</v>
       </c>
@@ -1600,8 +1604,9 @@
         <f t="shared" ref="E17:E26" si="3">C17*D17</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="18">
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="3:6" ht="18">
       <c r="C18" s="27">
         <v>600</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="18">
+    <row r="19" spans="3:6" ht="18">
       <c r="C19" s="27">
         <v>700</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>49.000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:6" ht="18">
       <c r="C20" s="27">
         <v>800</v>
       </c>
@@ -1637,7 +1642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:6" ht="18">
       <c r="C21" s="27">
         <v>900</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>63.000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:6" ht="18">
       <c r="C22" s="27">
         <v>1000</v>
       </c>
@@ -1661,7 +1666,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:6" ht="18">
       <c r="C23" s="27">
         <v>1100</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="18">
+    <row r="24" spans="3:6" ht="18">
       <c r="C24" s="27">
         <v>1200</v>
       </c>
@@ -1685,7 +1690,7 @@
         <v>84.000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="18">
+    <row r="25" spans="3:6" ht="18">
       <c r="C25" s="27">
         <v>1300</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>91.000000000000014</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="18">
+    <row r="26" spans="3:6" ht="18">
       <c r="C26" s="27">
         <v>1400</v>
       </c>
@@ -1726,7 +1731,7 @@
   </sheetPr>
   <dimension ref="A1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2374,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="24" spans="1:67" ht="15">
       <c r="A24" s="11" t="s">
